--- a/biology/Histoire de la zoologie et de la botanique/Jacob_Green/Jacob_Green.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacob_Green/Jacob_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Green (1790-1841) était un scientifique américain. Chimiste et naturaliste, il est le découvreur de plusieurs espèces de salamandres.
 Il enseigne la chimie, la philosophie expérimentale et l’histoire naturelle au Jefferson Medical College de Philadelphie.
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>George H. Goodwin, Jr. “Unrecorded Papers of Rafinesque and Jacob Green“, Systematic Zoology, Vol. 9, No. 1 (Mar., 1960), pp. 35–36</t>
         </is>
